--- a/CoreRulebook/Data/Spells/darkarts.xlsx
+++ b/CoreRulebook/Data/Spells/darkarts.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="137">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Discipline</t>
+  </si>
+  <si>
     <t xml:space="preserve">Incantation</t>
   </si>
   <si>
@@ -40,18 +43,6 @@
     <t xml:space="preserve">Level</t>
   </si>
   <si>
-    <t xml:space="preserve">Fortitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difficulty</t>
-  </si>
-  <si>
     <t xml:space="preserve">Resist</t>
   </si>
   <si>
@@ -67,6 +58,9 @@
     <t xml:space="preserve">Blight </t>
   </si>
   <si>
+    <t xml:space="preserve">Necromancy</t>
+  </si>
+  <si>
     <t xml:space="preserve">thanatos</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sickly-green shockwave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVL </t>
   </si>
   <si>
     <t xml:space="preserve">A cylinder of necrotic energy extends outwards from you in a radius of 10m (doubled with every PP, max 1km). All simple plants within range die instantly, and all other living beings take 1d4 necrotic damage (+1 per PP)</t>
@@ -106,6 +97,9 @@
     <t xml:space="preserve">Eldritch Knowledge</t>
   </si>
   <si>
+    <t xml:space="preserve">Occultism</t>
+  </si>
+  <si>
     <t xml:space="preserve">vetitum scenticus</t>
   </si>
   <si>
@@ -113,12 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">Yellow-black aura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arcane</t>
   </si>
   <si>
     <t xml:space="preserve">Attune your mind to the Eldritch Domains. The Demons of the Deep will answer one of your questions, but the answers might drive you mad.
@@ -134,9 +122,6 @@
     <t xml:space="preserve">Black bolt</t>
   </si>
   <si>
-    <t xml:space="preserve">POW</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hurl shadows at you enemy, dealing 1 necrotic damage for every casting point over the difficulty level. </t>
   </si>
   <si>
@@ -152,9 +137,6 @@
     <t xml:space="preserve">2 minutes</t>
   </si>
   <si>
-    <t xml:space="preserve">INT</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extinguish all light within a (10 + 2$\times$PP) metre radius, and all attempts to create new light fail, unless caster\apos{} passive POW check exceds the casting check.</t>
   </si>
   <si>
@@ -165,9 +147,6 @@
   </si>
   <si>
     <t xml:space="preserve">Red slash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strength</t>
   </si>
   <si>
     <t xml:space="preserve">Gouges at a target up to 2m away, leaving deep, cursed wounds, for 2d4 points of slashing damage.</t>
@@ -274,9 +253,6 @@
     <t xml:space="preserve">Black rays</t>
   </si>
   <si>
-    <t xml:space="preserve">POW </t>
-  </si>
-  <si>
     <t xml:space="preserve">Heal for one HP for each casting point over the difficulty. Remove half of the restored HP from a willing or restrained target.</t>
   </si>
   <si>
@@ -287,9 +263,6 @@
   </si>
   <si>
     <t xml:space="preserve">Concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaos</t>
   </si>
   <si>
     <t xml:space="preserve">Causes immense pain to the target, paralysing them whilst the spell is cast. 
@@ -308,12 +281,6 @@
     <t xml:space="preserve">4 minutes</t>
   </si>
   <si>
-    <t xml:space="preserve">CHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intimidation</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPR (Endurance)</t>
   </si>
   <si>
@@ -425,9 +392,6 @@
   </si>
   <si>
     <t xml:space="preserve">Imperius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persuasion</t>
   </si>
   <si>
     <t xml:space="preserve">The target is placed under the complete control of the caster until concentration is broken. </t>
@@ -545,6 +509,9 @@
     <t xml:space="preserve">Fury\apos{}s Fire</t>
   </si>
   <si>
+    <t xml:space="preserve">Beast</t>
+  </si>
+  <si>
     <t xml:space="preserve">Red Fireball</t>
   </si>
   <si>
@@ -562,9 +529,6 @@
   </si>
   <si>
     <t xml:space="preserve">Silver Glow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willpower</t>
   </si>
   <si>
     <t xml:space="preserve">If the spell is maintained on a targeted werewolf for 3 consecutive turns, they enter their wolf-form for 1 hour.</t>
@@ -871,28 +835,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M20" activeCellId="0" sqref="M20"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="27.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="92.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="36.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="27.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="92.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="36.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="12" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -923,982 +886,764 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="F3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="9" t="s">
-        <v>38</v>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="G6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>44</v>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="10" t="n">
+      <c r="G8" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="9" t="s">
-        <v>57</v>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="12" t="n">
+      <c r="G9" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>63</v>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>70</v>
+      <c r="H10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>16</v>
+        <v>60</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="G11" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="G11" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="7" t="s">
-        <v>74</v>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="8" t="n">
+        <v>64</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="7" t="s">
-        <v>78</v>
+      <c r="J12" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>83</v>
+      <c r="H13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>60</v>
+        <v>73</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="8" t="n">
-        <v>3</v>
-      </c>
       <c r="H14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="8" t="n">
+        <v>71</v>
+      </c>
+      <c r="I14" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="M14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>89</v>
+      <c r="J14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="32.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="G15" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>95</v>
+      <c r="H15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J16" s="8" t="n">
-        <v>9</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="7" t="s">
-        <v>99</v>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="32.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="12" t="n">
+      <c r="G17" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G17" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="11" t="s">
-        <v>103</v>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F18" s="8" t="n">
+      <c r="G18" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="G18" s="8" t="n">
-        <v>11</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J18" s="8" t="n">
-        <v>9</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>107</v>
+      <c r="H18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="8" t="n">
+      <c r="G19" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="G19" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>112</v>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="32.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G20" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J20" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="7" t="s">
-        <v>116</v>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F21" s="8" t="n">
+      <c r="G21" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G21" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="7" t="s">
-        <v>120</v>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="8" t="n">
+      <c r="G22" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G22" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="7" t="s">
-        <v>124</v>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="41.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F23" s="8" t="n">
+      <c r="G23" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G23" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="G24" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G24" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J24" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>122</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="1" t="n">
         <v>3</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="1" t="n">
+      <c r="J25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J26" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>143</v>
+      <c r="J26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G27" s="1" t="n">
-        <v>6</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J27" s="1" t="n">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Spells/darkarts.xlsx
+++ b/CoreRulebook/Data/Spells/darkarts.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Spells\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B995AA2-369C-4612-AE3F-64C7776BE30B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,57 +25,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="137">
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incantation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TravelType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResistDV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HigherLevel</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="153">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Discipline</t>
+  </si>
+  <si>
+    <t>Incantation</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>TravelType</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Resist</t>
+  </si>
+  <si>
+    <t>ResistDV</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>HigherLevel</t>
   </si>
   <si>
     <t xml:space="preserve">Blight </t>
   </si>
   <si>
-    <t xml:space="preserve">Necromancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thanatos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sickly-green shockwave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A cylinder of necrotic energy extends outwards from you in a radius of 10m (doubled with every PP, max 1km). All simple plants within range die instantly, and all other living beings take 1d4 necrotic damage (+1 per PP)</t>
+    <t>Necromancy</t>
+  </si>
+  <si>
+    <t>thanatos</t>
+  </si>
+  <si>
+    <t>Instant</t>
+  </si>
+  <si>
+    <t>Sickly-green shockwave</t>
+  </si>
+  <si>
+    <t>A cylinder of necrotic energy extends outwards from you in a radius of 10m (doubled with every PP, max 1km). All simple plants within range die instantly, and all other living beings take 1d4 necrotic damage (+1 per PP)</t>
   </si>
   <si>
     <r>
@@ -80,7 +85,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">An adept level caster may add an extra d4 of damage for every 4 character levels above 2</t>
+      <t>An adept level caster may add an extra d4 of damage for every 4 character levels above 2</t>
     </r>
     <r>
       <rPr>
@@ -90,36 +95,36 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">nd.</t>
+      <t>nd.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Eldritch Knowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occultism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vetitum scenticus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (3 turns)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellow-black aura</t>
+    <t>Eldritch Knowledge</t>
+  </si>
+  <si>
+    <t>Occultism</t>
+  </si>
+  <si>
+    <t>vetitum scenticus</t>
+  </si>
+  <si>
+    <t>Ritual (3 turns)</t>
+  </si>
+  <si>
+    <t>Yellow-black aura</t>
   </si>
   <si>
     <t xml:space="preserve">Attune your mind to the Eldritch Domains. The Demons of the Deep will answer one of your questions, but the answers might drive you mad.
 The question must be said out loud for all to hear, but the answer may be written down and passed to your privately. </t>
   </si>
   <si>
-    <t xml:space="preserve">Shadow Blast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">malusangui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black bolt</t>
+    <t>Shadow Blast</t>
+  </si>
+  <si>
+    <t>malusangui</t>
+  </si>
+  <si>
+    <t>Black bolt</t>
   </si>
   <si>
     <t xml:space="preserve">Hurl shadows at you enemy, dealing 1 necrotic damage for every casting point over the difficulty level. </t>
@@ -128,28 +133,28 @@
     <t xml:space="preserve">An novice-level caster does 2 extra points for each point that the CV exceeds the DV, and an Expert-level caster does 4 extra. </t>
   </si>
   <si>
-    <t xml:space="preserve">Shroud of Darkness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tenebrosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extinguish all light within a (10 + 2$\times$PP) metre radius, and all attempts to create new light fail, unless caster\apos{} passive POW check exceds the casting check.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vicious Slash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sectumsempra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red slash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gouges at a target up to 2m away, leaving deep, cursed wounds, for 2d4 points of slashing damage.</t>
+    <t>Shroud of Darkness</t>
+  </si>
+  <si>
+    <t>tenebrosa</t>
+  </si>
+  <si>
+    <t>2 minutes</t>
+  </si>
+  <si>
+    <t>Extinguish all light within a (10 + 2$\times$PP) metre radius, and all attempts to create new light fail, unless caster\apos{} passive POW check exceds the casting check.</t>
+  </si>
+  <si>
+    <t>Vicious Slash</t>
+  </si>
+  <si>
+    <t>sectumsempra</t>
+  </si>
+  <si>
+    <t>Red slash</t>
+  </si>
+  <si>
+    <t>Gouges at a target up to 2m away, leaving deep, cursed wounds, for 2d4 points of slashing damage.</t>
   </si>
   <si>
     <r>
@@ -159,7 +164,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">At 8</t>
+      <t>At 8</t>
     </r>
     <r>
       <rPr>
@@ -169,7 +174,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -188,7 +193,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -197,7 +202,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, use 4d6, and at 20</t>
+      <t>, use 4d6, and at 20</t>
     </r>
     <r>
       <rPr>
@@ -207,7 +212,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -220,190 +225,181 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Contagion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vastantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sickly-green rays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATH (Health)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC</t>
+    <t>Contagion</t>
+  </si>
+  <si>
+    <t>vastantes</t>
+  </si>
+  <si>
+    <t>Sickly-green rays</t>
+  </si>
+  <si>
+    <t>2 weeks</t>
+  </si>
+  <si>
+    <t>ATH (Health)</t>
+  </si>
+  <si>
+    <t>CC</t>
   </si>
   <si>
     <t xml:space="preserve">Target contracts a necrotic disease. All positive modifiers and proficiency bonuses are set to zero until cured. Disease is contagious and each time they touch an afflicted individual, being must Resist, or contract the disease also. All effects negated on resist. </t>
   </si>
   <si>
-    <t xml:space="preserve">When cast by an Expert-level caster, all positive bonuses etc. are set to -2 for the duration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dark Healing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tenebrosa sudarium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black rays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heal for one HP for each casting point over the difficulty. Remove half of the restored HP from a willing or restrained target.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crucio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concentration</t>
+    <t>When cast by an Expert-level caster, all positive bonuses etc. are set to -2 for the duration.</t>
+  </si>
+  <si>
+    <t>Dark Healing</t>
+  </si>
+  <si>
+    <t>tenebrosa sudarium</t>
+  </si>
+  <si>
+    <t>Black rays</t>
+  </si>
+  <si>
+    <t>Heal for one HP for each casting point over the difficulty. Remove half of the restored HP from a willing or restrained target.</t>
+  </si>
+  <si>
+    <t>Torture</t>
+  </si>
+  <si>
+    <t>Crucio</t>
+  </si>
+  <si>
+    <t>Concentration</t>
   </si>
   <si>
     <t xml:space="preserve">Causes immense pain to the target, paralysing them whilst the spell is cast. 
 Does (1+PP)d4 psychic damage per turn. </t>
   </si>
   <si>
-    <t xml:space="preserve">When cast by an expert-level caster, act as if 5 PP have been donated during the attack-roll phase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instil Terror</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPR (Endurance)</t>
+    <t>When cast by an expert-level caster, act as if 5 PP have been donated during the attack-roll phase</t>
+  </si>
+  <si>
+    <t>Instil Terror</t>
+  </si>
+  <si>
+    <t>timeant</t>
+  </si>
+  <si>
+    <t>4 minutes</t>
+  </si>
+  <si>
+    <t>SPR (Endurance)</t>
   </si>
   <si>
     <t xml:space="preserve">Target acquires the {\it Terrified} status. Resist negates effect, but does 2 Fatigue damage. </t>
   </si>
   <si>
-    <t xml:space="preserve">Necrosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carnes mortis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sickly-green bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do 1d4 necrotic damage plus an additional 1d4 \cvdv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plague of Insects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prorepere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summon a swarm of insects from the ground. Insect plague covers area of 2m radius, doubling with each PP (max 32 metres). All targets in radius must perform an evasion check, or take 1d4 poison damage and 1d4 piercing damage until they escape the area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summon Void</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inanis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 minute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summon a true Void anywhere within 15m of your current position, a gap in the fabric of reality that attracts all objects within a 5m radius. Everything in radius must perform an ATH Resist against the casting check to grab onto something. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abyssal Fluid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sucus infernum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black jet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 turns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A pencil-thin jet of inky black fluid emerges from the end of your wand for as long as concentration is maintained, reaching up to 5m away. All targets touched by the fluid take 2d4 acid damage for 2 turns. Resist for half damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A master-level caster may expand the jet into a cone, and add an extra 2d4 to the damage check for every three character levels over level 10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiendfyre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pyrkagius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 hour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPR</t>
+    <t>Necrosis</t>
+  </si>
+  <si>
+    <t>carnes mortis</t>
+  </si>
+  <si>
+    <t>Sickly-green bolt</t>
+  </si>
+  <si>
+    <t>Do 1d4 necrotic damage plus an additional 1d4 \cvdv</t>
+  </si>
+  <si>
+    <t>Plague of Insects</t>
+  </si>
+  <si>
+    <t>prorepere</t>
+  </si>
+  <si>
+    <t>5 minutes</t>
+  </si>
+  <si>
+    <t>Summon a swarm of insects from the ground. Insect plague covers area of 2m radius, doubling with each PP (max 32 metres). All targets in radius must perform an evasion check, or take 1d4 poison damage and 1d4 piercing damage until they escape the area.</t>
+  </si>
+  <si>
+    <t>Summon Void</t>
+  </si>
+  <si>
+    <t>inanis</t>
+  </si>
+  <si>
+    <t>1 minute</t>
+  </si>
+  <si>
+    <t>ATH</t>
+  </si>
+  <si>
+    <t>Abyssal Fluid</t>
+  </si>
+  <si>
+    <t>sucus infernum</t>
+  </si>
+  <si>
+    <t>Black jet</t>
+  </si>
+  <si>
+    <t>2 turns</t>
+  </si>
+  <si>
+    <t>A pencil-thin jet of inky black fluid emerges from the end of your wand for as long as concentration is maintained, reaching up to 5m away. All targets touched by the fluid take 2d4 acid damage for 2 turns. Resist for half damage.</t>
+  </si>
+  <si>
+    <t>A master-level caster may expand the jet into a cone, and add an extra 2d4 to the damage check for every three character levels over level 10.</t>
+  </si>
+  <si>
+    <t>Fiendfyre</t>
+  </si>
+  <si>
+    <t>pyrkagius</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>SPR</t>
   </si>
   <si>
     <t xml:space="preserve">Summons a cursed fire that consumes everything that it touches, does 1d8 fire damage to all it touches, and will actively seek out targets. 
 Attempts to extinguish the fiendfyre must succeed a Resist check. </t>
   </si>
   <si>
-    <t xml:space="preserve">When cast by a Master-level caster, fiendfyre does 2d8 extra fire damage, and extinguishing checks take a 2-point penalty.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summon Living Shadow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">viven umbrafors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3+PP) turns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bring the very shadows to life: a being of pure darkness will stalk your enemies, attacking them whenever they stray near the shadows, doing (1+PP)d10 worth of necrotic damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blood Barrier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">confusangui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (8 turns)</t>
+    <t>When cast by a Master-level caster, fiendfyre does 2d8 extra fire damage, and extinguishing checks take a 2-point penalty.</t>
+  </si>
+  <si>
+    <t>viven umbrafors</t>
+  </si>
+  <si>
+    <t>(3+PP) turns</t>
+  </si>
+  <si>
+    <t>Bring the very shadows to life: a being of pure darkness will stalk your enemies, attacking them whenever they stray near the shadows, doing (1+PP)d10 worth of necrotic damage.</t>
+  </si>
+  <si>
+    <t>Blood Barrier</t>
+  </si>
+  <si>
+    <t>confusangui</t>
   </si>
   <si>
     <t xml:space="preserve">Use blood to draw warding runes onto an object or person. Erects a swirling red magical barrier with AC 10, plus 5 for every casting point over the difficulty. Barrier blocks all physical and magical damage and is immune to acid erosion, but is eroded by holy damage. 
 Each individual{\apos}s blood can only be used once for blood magic.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Create Thrall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imperius</t>
+    <t>Create Thrall</t>
+  </si>
+  <si>
+    <t>Imperius</t>
   </si>
   <si>
     <t xml:space="preserve">The target is placed under the complete control of the caster until concentration is broken. </t>
   </si>
   <si>
-    <t xml:space="preserve">Create Zombie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inferi exorior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (5 minutes)</t>
+    <t>Create Zombie</t>
+  </si>
+  <si>
+    <t>inferi exorior</t>
+  </si>
+  <si>
+    <t>Ritual (5 minutes)</t>
   </si>
   <si>
     <t xml:space="preserve">Breathes unlife into dead bodies, and turns them into ghastly puppets, performing your every whim: the inferi. Inferi act as golems, obeying every word of their creator. </t>
@@ -416,7 +412,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">When cast by a Master-level caster greater than 15</t>
+      <t>When cast by a Master-level caster greater than 15</t>
     </r>
     <r>
       <rPr>
@@ -426,7 +422,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -439,51 +435,51 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Chaos Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chaomal portis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2+PP) turns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open a small portal to Pand{\ae}monium, the Chaos Realm at your current location. For every turn that the portal remains open, it casts random Dark Magic at all targets outside a 2m radius of the caster. These spells increase in power as the portal remains open.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Horcrux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pervinco mortis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (1 day)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The caster places a portion of their soul into another object. Write down the horcrux on a piece of paper and keep it hidden. 
+    <t>Chaos Magic</t>
+  </si>
+  <si>
+    <t>chaomal portis</t>
+  </si>
+  <si>
+    <t>(2+PP) turns</t>
+  </si>
+  <si>
+    <t>Open a small portal to Pand{\ae}monium, the Chaos Realm at your current location. For every turn that the portal remains open, it casts random Dark Magic at all targets outside a 2m radius of the caster. These spells increase in power as the portal remains open.</t>
+  </si>
+  <si>
+    <t>Create Horcrux</t>
+  </si>
+  <si>
+    <t>pervinco mortis</t>
+  </si>
+  <si>
+    <t>Ritual (1 day)</t>
+  </si>
+  <si>
+    <t>The caster places a portion of their soul into another object. Write down the horcrux on a piece of paper and keep it hidden. 
 Whilst a horcrux exists, the character cannot be killed, however creating a Horcrux reduces all casting checks by 2 for each horcrux that is created.  
 Can only be cast if the caster has murdered an innocent in cold blood.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kill Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avada kedavra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green bolt</t>
+    <t>Kill Target</t>
+  </si>
+  <si>
+    <t>avada kedavra</t>
+  </si>
+  <si>
+    <t>Green bolt</t>
   </si>
   <si>
     <t xml:space="preserve">If the spell makes contact with the target, kills them instantly. There is no countercurse. </t>
   </si>
   <si>
-    <t xml:space="preserve">Soul Snare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nerco decipula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black aura</t>
+    <t>Soul Snare</t>
+  </si>
+  <si>
+    <t>nerco decipula</t>
+  </si>
+  <si>
+    <t>Black aura</t>
   </si>
   <si>
     <t xml:space="preserve">Capture the soul of a recently killed enemy. 
@@ -491,28 +487,28 @@
 Only one soul may be trapped at any given, and no power points may be dedicated to the instant-casting. </t>
   </si>
   <si>
-    <t xml:space="preserve">Universal Tear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ostium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (1 week)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searing white flash</t>
+    <t>Universal Tear</t>
+  </si>
+  <si>
+    <t>ostium</t>
+  </si>
+  <si>
+    <t>Ritual (1 week)</t>
+  </si>
+  <si>
+    <t>Searing white flash</t>
   </si>
   <si>
     <t xml:space="preserve">Punch a hole in the fabric of reality, and establish a portal to one of the Higher Planes. This portal takes the form of a shimmering door. Stepping through the door takes you to the chosen Plane. </t>
   </si>
   <si>
-    <t xml:space="preserve">Fury\apos{}s Fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red Fireball</t>
+    <t>Fury\apos{}s Fire</t>
+  </si>
+  <si>
+    <t>Beast</t>
+  </si>
+  <si>
+    <t>Red Fireball</t>
   </si>
   <si>
     <t xml:space="preserve">{\bf This spell can only be cast by a Veela when in their Fury-form. It cannot be learned by non-Veela.}
@@ -522,31 +518,31 @@
     <t xml:space="preserve">When cast by a Veela greater than 10th level, use a d8 dice for the damage check. </t>
   </si>
   <si>
-    <t xml:space="preserve">False Moon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lupis lunis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver Glow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the spell is maintained on a targeted werewolf for 3 consecutive turns, they enter their wolf-form for 1 hour.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When cast by a character greater than 15th level, the spell works after only 1 turn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crippling Fatigue</t>
+    <t>False Moon</t>
+  </si>
+  <si>
+    <t>lupis lunis</t>
+  </si>
+  <si>
+    <t>Silver Glow</t>
+  </si>
+  <si>
+    <t>If the spell is maintained on a targeted werewolf for 3 consecutive turns, they enter their wolf-form for 1 hour.</t>
+  </si>
+  <si>
+    <t>When cast by a character greater than 15th level, the spell works after only 1 turn.</t>
+  </si>
+  <si>
+    <t>Crippling Fatigue</t>
   </si>
   <si>
     <t xml:space="preserve">dulcis mortem </t>
   </si>
   <si>
-    <t xml:space="preserve">Until healed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target takes 2nd level Fatigued status (negated on Resist). Target is not alerted that this spell has been cast on them.</t>
+    <t>Until healed</t>
+  </si>
+  <si>
+    <t>Target takes 2nd level Fatigued status (negated on Resist). Target is not alerted that this spell has been cast on them.</t>
   </si>
   <si>
     <r>
@@ -556,7 +552,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">When cast by an Expert-level caster, spell gives 4</t>
+      <t>When cast by an Expert-level caster, spell gives 4</t>
     </r>
     <r>
       <rPr>
@@ -566,7 +562,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -578,35 +574,74 @@
       <t xml:space="preserve"> level Fatigue. </t>
     </r>
   </si>
+  <si>
+    <t>Shadowsight</t>
+  </si>
+  <si>
+    <t>ivertus</t>
+  </si>
+  <si>
+    <t>Eyes glow white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invert your vision -- pure darkness is considered bright light, and bright light is considered pure darkness for as long as the spell is maintained. </t>
+  </si>
+  <si>
+    <t>Coven\apos{}s Protection</t>
+  </si>
+  <si>
+    <t>Ritual (4 hours)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This ritual can only be performed in an isolated area, in the middle of the night. By gathering together and invoking the name of an unspeakable, unknowable power, you bind the life forces of all participants together, to form a unified whole. While the Coven exists, any member may use a minor action to transfer HP or FP to any other member of the coven, and multiple members may send HP/FP to the same target at any given moment. However, if psychic damage is inflicted on any member of the Coven in the same turn-cycle that HP or FP are being transferred, that damage is done to all members of the Coven. If this damage is also a Critical Strike, then the ritual is distrupted and the spell is ended. </t>
+  </si>
+  <si>
+    <t>Shadow Demon</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>Half the caster level</t>
+  </si>
+  <si>
+    <t>Summon a true Void anywhere within 15m of your current position, a gap in the fabric of reality that attracts all objects within a 5m radius. Everything in radius must perform an ATH Resist check to grab onto something. Objects sucked into the Void have a 25\% chance to remain there, and a75\% chance to be randomly teleported anywhere in the multiverse., after taking 4d8 cold damage.</t>
+  </si>
+  <si>
+    <t>facadus horribilis</t>
+  </si>
+  <si>
+    <t>10 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imbue yourself with the essence of one of the Eldritch beings, giving a bonus to any one of your Attributes equal to half your caster level, in doing so, however, your face transforms into a horrifying edifice which drives all who gaze upon it to go insane: they will either fly into a murderous rage, become catatonic, or flee from you. </t>
+  </si>
+  <si>
+    <t>Use Ancient Powers</t>
+  </si>
+  <si>
+    <t>Ritual (1 hour)</t>
+  </si>
+  <si>
+    <t>Unfathomable Visage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When at a site of ancient magic -- be it at a place where some great feat of magic was achieved, the residence of some powerful being, or simply somewhere where magic has seeped into the very walls -- you may perform this ritual to tap into those ancient powers to gain a +2 bonus to spellcasting checks whilst in this area. This ritual may only be performed once per site. </t>
+  </si>
+  <si>
+    <t>1 day</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -631,14 +666,14 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -653,7 +688,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -668,7 +703,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -680,93 +715,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -825,40 +818,347 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AME31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="D26" activeCellId="0" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="27.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="92.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="36.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="12" style="1" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="8.71"/>
+    <col min="1" max="3" width="28" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="92.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="36.42578125" style="1" customWidth="1"/>
+    <col min="12" max="1019" width="8.7109375" style="1" customWidth="1"/>
+    <col min="1020" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -893,7 +1193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -909,10 +1209,10 @@
       <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="5">
         <v>0</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="5">
         <v>1</v>
       </c>
       <c r="H2" s="5"/>
@@ -924,7 +1224,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -940,10 +1240,10 @@
       <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="8">
         <v>0</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="8">
         <v>1</v>
       </c>
       <c r="H3" s="8"/>
@@ -952,12 +1252,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>25</v>
@@ -968,10 +1268,10 @@
       <c r="E4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="8">
         <v>0</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="8">
         <v>1</v>
       </c>
       <c r="H4" s="8"/>
@@ -983,7 +1283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
@@ -1000,7 +1300,7 @@
       <c r="F5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="10" t="n">
+      <c r="G5" s="10">
         <v>1</v>
       </c>
       <c r="H5" s="10"/>
@@ -1009,7 +1309,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
@@ -1025,10 +1325,10 @@
       <c r="E6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="10" t="n">
+      <c r="F6" s="10">
         <v>0</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="8">
         <v>1</v>
       </c>
       <c r="H6" s="8"/>
@@ -1040,7 +1340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
@@ -1059,7 +1359,7 @@
       <c r="F7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="5">
         <v>2</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -1075,7 +1375,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>46</v>
       </c>
@@ -1091,10 +1391,10 @@
       <c r="E8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="10" t="n">
+      <c r="F8" s="10">
         <v>0</v>
       </c>
-      <c r="G8" s="10" t="n">
+      <c r="G8" s="10">
         <v>2</v>
       </c>
       <c r="H8" s="10"/>
@@ -1103,7 +1403,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>50</v>
       </c>
@@ -1117,11 +1417,11 @@
         <v>52</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="10">
         <v>0</v>
       </c>
-      <c r="G9" s="12" t="n">
-        <v>2</v>
+      <c r="G9" s="12">
+        <v>3</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -1132,7 +1432,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>55</v>
       </c>
@@ -1149,7 +1449,7 @@
       <c r="F10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="8">
         <v>1</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -1162,7 +1462,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>60</v>
       </c>
@@ -1178,10 +1478,10 @@
       <c r="E11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="8">
         <v>0</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="8">
         <v>2</v>
       </c>
       <c r="H11" s="8"/>
@@ -1190,7 +1490,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>64</v>
       </c>
@@ -1207,7 +1507,7 @@
       <c r="F12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12" s="8">
         <v>3</v>
       </c>
       <c r="H12" s="8"/>
@@ -1216,7 +1516,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>68</v>
       </c>
@@ -1233,157 +1533,157 @@
       <c r="F13" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="12" t="n">
-        <v>2</v>
+      <c r="G13" s="12">
+        <v>3</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>71</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="J13" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="8" t="n">
+      <c r="G14" s="8">
         <v>2</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="8" t="n">
+      <c r="I14" s="8">
         <v>10</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="32.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="8">
+        <v>3</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="G15" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>43</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="8" t="n">
+        <v>85</v>
+      </c>
+      <c r="G16" s="8">
         <v>3</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="32.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="10" t="n">
+      <c r="F17" s="10">
         <v>0</v>
       </c>
-      <c r="G17" s="12" t="n">
+      <c r="G17" s="12">
         <v>4</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="8" t="n">
+      <c r="F18" s="8">
         <v>0</v>
       </c>
-      <c r="G18" s="8" t="n">
+      <c r="G18" s="8">
         <v>4</v>
       </c>
       <c r="H18" s="8" t="s">
@@ -1393,244 +1693,244 @@
         <v>43</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="8" t="n">
+      <c r="F19" s="8">
         <v>0</v>
       </c>
-      <c r="G19" s="8" t="n">
+      <c r="G19" s="8">
         <v>4</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="32.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="8" t="n">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="G20" s="8">
+        <v>4</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="8" t="n">
+      <c r="F21" s="8">
         <v>0</v>
       </c>
-      <c r="G21" s="8" t="n">
+      <c r="G21" s="8">
         <v>5</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="8" t="n">
+        <v>108</v>
+      </c>
+      <c r="F22" s="8">
         <v>0</v>
       </c>
-      <c r="G22" s="8" t="n">
+      <c r="G22" s="8">
         <v>5</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="41.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="8" t="n">
+        <v>112</v>
+      </c>
+      <c r="F23" s="8">
         <v>0</v>
       </c>
-      <c r="G23" s="8" t="n">
+      <c r="G23" s="8">
         <v>5</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="G27" s="1">
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -1640,17 +1940,105 @@
         <v>43</v>
       </c>
       <c r="J27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="84" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>151</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/CoreRulebook/Data/Spells/darkarts.xlsx
+++ b/CoreRulebook/Data/Spells/darkarts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Spells\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B995AA2-369C-4612-AE3F-64C7776BE30B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8A707E-D3B0-47BB-85AF-AAA7B024F9FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="645" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -380,10 +380,6 @@
     <t>confusangui</t>
   </si>
   <si>
-    <t xml:space="preserve">Use blood to draw warding runes onto an object or person. Erects a swirling red magical barrier with AC 10, plus 5 for every casting point over the difficulty. Barrier blocks all physical and magical damage and is immune to acid erosion, but is eroded by holy damage. 
-Each individual{\apos}s blood can only be used once for blood magic.  </t>
-  </si>
-  <si>
     <t>Create Thrall</t>
   </si>
   <si>
@@ -630,6 +626,10 @@
   </si>
   <si>
     <t>1 day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use blood to draw warding runes onto an object or person. Erects a swirling red magical barrier with AC 10, plus 5 for every casting point over the difficulty. Barrier blocks all physical and magical damage and is immune to acid erosion, but is eroded by celestial damage. 
+Each individual{\apos}s blood can only be used once for blood magic.  </t>
   </si>
 </sst>
 </file>
@@ -1139,10 +1139,10 @@
   <dimension ref="A1:AME31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1540,10 +1540,10 @@
         <v>71</v>
       </c>
       <c r="I13" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -1616,7 +1616,7 @@
     </row>
     <row r="16" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>19</v>
@@ -1651,7 +1651,7 @@
         <v>88</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10">
@@ -1663,18 +1663,18 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="11" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>52</v>
@@ -1693,21 +1693,21 @@
         <v>43</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8">
@@ -1719,28 +1719,28 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G20" s="8">
         <v>4</v>
@@ -1748,21 +1748,21 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8">
@@ -1774,24 +1774,24 @@
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" s="8">
         <v>0</v>
@@ -1802,24 +1802,24 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F23" s="8">
         <v>0</v>
@@ -1830,24 +1830,24 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -1856,21 +1856,21 @@
         <v>5</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="F25" s="1">
         <v>3</v>
@@ -1879,27 +1879,27 @@
         <v>1</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>80</v>
@@ -1908,27 +1908,27 @@
         <v>3</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G27" s="1">
         <v>2</v>
@@ -1940,27 +1940,27 @@
         <v>43</v>
       </c>
       <c r="J27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -1969,18 +1969,18 @@
         <v>2</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="84" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -1989,50 +1989,50 @@
         <v>4</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G30" s="1">
         <v>2</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Spells/darkarts.xlsx
+++ b/CoreRulebook/Data/Spells/darkarts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Spells\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8A707E-D3B0-47BB-85AF-AAA7B024F9FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94F36FA-FB04-4C08-B28C-2CD6F2A4A8AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="645" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="3285" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="161">
   <si>
     <t>Name</t>
   </si>
@@ -630,6 +630,30 @@
   <si>
     <t xml:space="preserve">Use blood to draw warding runes onto an object or person. Erects a swirling red magical barrier with AC 10, plus 5 for every casting point over the difficulty. Barrier blocks all physical and magical damage and is immune to acid erosion, but is eroded by celestial damage. 
 Each individual{\apos}s blood can only be used once for blood magic.  </t>
+  </si>
+  <si>
+    <t>Summoning Circle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By gathering together a group (only one of whom needs to be able to cast this spell), you create a special altar from which conjuration spells are especially powerful. The radius of this region is 2m, and whilst inside it, you gain a bonus to Conjuration casting checks equal to the number of people who created the summoning circle. </t>
+  </si>
+  <si>
+    <t>Blood Moon</t>
+  </si>
+  <si>
+    <t>Ritual (10 minutes)</t>
+  </si>
+  <si>
+    <t>Sky turns red</t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>When cast by a Master-level cast, this spell lasts for one week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By sacrificing an animal larger than a cat, you may use the inherent power of its blood to manipulate the power of the Sun and the Moon: the sky becomes overcast and takes on an unhealthy red glow. This blocks out the effects of the sun and the moon on Vampires, Werewolves, and other such creatures. Werewolves may still choose to undergo their transformation, but retain humanoid intelligence when doing so. </t>
   </si>
 </sst>
 </file>
@@ -1136,13 +1160,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AME31"/>
+  <dimension ref="A1:AME33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2035,6 +2059,49 @@
         <v>150</v>
       </c>
     </row>
+    <row r="32" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="1">
+        <v>4</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/CoreRulebook/Data/Spells/darkarts.xlsx
+++ b/CoreRulebook/Data/Spells/darkarts.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Spells\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94F36FA-FB04-4C08-B28C-2CD6F2A4A8AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="3285" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -27,55 +22,55 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="161">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Discipline</t>
-  </si>
-  <si>
-    <t>Incantation</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>TravelType</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Resist</t>
-  </si>
-  <si>
-    <t>ResistDV</t>
-  </si>
-  <si>
-    <t>Effect</t>
-  </si>
-  <si>
-    <t>HigherLevel</t>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discipline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incantation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TravelType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResistDV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HigherLevel</t>
   </si>
   <si>
     <t xml:space="preserve">Blight </t>
   </si>
   <si>
-    <t>Necromancy</t>
-  </si>
-  <si>
-    <t>thanatos</t>
-  </si>
-  <si>
-    <t>Instant</t>
-  </si>
-  <si>
-    <t>Sickly-green shockwave</t>
-  </si>
-  <si>
-    <t>A cylinder of necrotic energy extends outwards from you in a radius of 10m (doubled with every PP, max 1km). All simple plants within range die instantly, and all other living beings take 1d4 necrotic damage (+1 per PP)</t>
+    <t xml:space="preserve">Necromancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanatos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sickly-green shockwave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cylinder of necrotic energy extends outwards from you in a radius of 10m (doubled with every PP, max 1km). All simple plants within range die instantly, and all other living beings take 1d4 necrotic damage (+1 per PP)</t>
   </si>
   <si>
     <r>
@@ -85,7 +80,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>An adept level caster may add an extra d4 of damage for every 4 character levels above 2</t>
+      <t xml:space="preserve">An adept level caster may add an extra d4 of damage for every 4 character levels above 2</t>
     </r>
     <r>
       <rPr>
@@ -95,36 +90,36 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>nd.</t>
+      <t xml:space="preserve">nd.</t>
     </r>
   </si>
   <si>
-    <t>Eldritch Knowledge</t>
-  </si>
-  <si>
-    <t>Occultism</t>
-  </si>
-  <si>
-    <t>vetitum scenticus</t>
-  </si>
-  <si>
-    <t>Ritual (3 turns)</t>
-  </si>
-  <si>
-    <t>Yellow-black aura</t>
+    <t xml:space="preserve">Eldritch Knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occultism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vetitum scenticus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ritual (3 turns)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow-black aura</t>
   </si>
   <si>
     <t xml:space="preserve">Attune your mind to the Eldritch Domains. The Demons of the Deep will answer one of your questions, but the answers might drive you mad.
 The question must be said out loud for all to hear, but the answer may be written down and passed to your privately. </t>
   </si>
   <si>
-    <t>Shadow Blast</t>
-  </si>
-  <si>
-    <t>malusangui</t>
-  </si>
-  <si>
-    <t>Black bolt</t>
+    <t xml:space="preserve">Shadow Blast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malusangui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black bolt</t>
   </si>
   <si>
     <t xml:space="preserve">Hurl shadows at you enemy, dealing 1 necrotic damage for every casting point over the difficulty level. </t>
@@ -133,28 +128,28 @@
     <t xml:space="preserve">An novice-level caster does 2 extra points for each point that the CV exceeds the DV, and an Expert-level caster does 4 extra. </t>
   </si>
   <si>
-    <t>Shroud of Darkness</t>
-  </si>
-  <si>
-    <t>tenebrosa</t>
-  </si>
-  <si>
-    <t>2 minutes</t>
-  </si>
-  <si>
-    <t>Extinguish all light within a (10 + 2$\times$PP) metre radius, and all attempts to create new light fail, unless caster\apos{} passive POW check exceds the casting check.</t>
-  </si>
-  <si>
-    <t>Vicious Slash</t>
-  </si>
-  <si>
-    <t>sectumsempra</t>
-  </si>
-  <si>
-    <t>Red slash</t>
-  </si>
-  <si>
-    <t>Gouges at a target up to 2m away, leaving deep, cursed wounds, for 2d4 points of slashing damage.</t>
+    <t xml:space="preserve">Shroud of Darkness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenebrosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extinguish all light within a (10 + 2$\times$PP) metre radius, and all attempts to create new light fail, unless caster\apos{} passive POW check exceds the casting check.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vicious Slash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sectumsempra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red slash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gouges at a target up to 2m away, leaving deep, cursed wounds, for 2d4 points of slashing damage.</t>
   </si>
   <si>
     <r>
@@ -164,7 +159,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>At 8</t>
+      <t xml:space="preserve">At 8</t>
     </r>
     <r>
       <rPr>
@@ -174,7 +169,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>th</t>
+      <t xml:space="preserve">th</t>
     </r>
     <r>
       <rPr>
@@ -193,7 +188,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>th</t>
+      <t xml:space="preserve">th</t>
     </r>
     <r>
       <rPr>
@@ -202,7 +197,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>, use 4d6, and at 20</t>
+      <t xml:space="preserve">, use 4d6, and at 20</t>
     </r>
     <r>
       <rPr>
@@ -212,7 +207,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>th</t>
+      <t xml:space="preserve">th</t>
     </r>
     <r>
       <rPr>
@@ -225,177 +220,193 @@
     </r>
   </si>
   <si>
-    <t>Contagion</t>
-  </si>
-  <si>
-    <t>vastantes</t>
-  </si>
-  <si>
-    <t>Sickly-green rays</t>
-  </si>
-  <si>
-    <t>2 weeks</t>
-  </si>
-  <si>
-    <t>ATH (Health)</t>
-  </si>
-  <si>
-    <t>CC</t>
+    <t xml:space="preserve">Contagion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vastantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sickly-green rays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATH (Health)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC</t>
   </si>
   <si>
     <t xml:space="preserve">Target contracts a necrotic disease. All positive modifiers and proficiency bonuses are set to zero until cured. Disease is contagious and each time they touch an afflicted individual, being must Resist, or contract the disease also. All effects negated on resist. </t>
   </si>
   <si>
-    <t>When cast by an Expert-level caster, all positive bonuses etc. are set to -2 for the duration.</t>
-  </si>
-  <si>
-    <t>Dark Healing</t>
-  </si>
-  <si>
-    <t>tenebrosa sudarium</t>
-  </si>
-  <si>
-    <t>Black rays</t>
-  </si>
-  <si>
-    <t>Heal for one HP for each casting point over the difficulty. Remove half of the restored HP from a willing or restrained target.</t>
-  </si>
-  <si>
-    <t>Torture</t>
-  </si>
-  <si>
-    <t>Crucio</t>
-  </si>
-  <si>
-    <t>Concentration</t>
+    <t xml:space="preserve">When cast by an Expert-level caster, all positive bonuses etc. are set to -2 for the duration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Healing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenebrosa sudarium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black rays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heal for one HP for each casting point over the difficulty. Remove half of the restored HP from a willing or restrained target.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crucio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentration</t>
   </si>
   <si>
     <t xml:space="preserve">Causes immense pain to the target, paralysing them whilst the spell is cast. 
 Does (1+PP)d4 psychic damage per turn. </t>
   </si>
   <si>
-    <t>When cast by an expert-level caster, act as if 5 PP have been donated during the attack-roll phase</t>
-  </si>
-  <si>
-    <t>Instil Terror</t>
-  </si>
-  <si>
-    <t>timeant</t>
-  </si>
-  <si>
-    <t>4 minutes</t>
-  </si>
-  <si>
-    <t>SPR (Endurance)</t>
+    <t xml:space="preserve">When cast by an expert-level caster, act as if 5 PP have been donated during the attack-roll phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instil Terror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timeant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPR (Endurance)</t>
   </si>
   <si>
     <t xml:space="preserve">Target acquires the {\it Terrified} status. Resist negates effect, but does 2 Fatigue damage. </t>
   </si>
   <si>
-    <t>Necrosis</t>
-  </si>
-  <si>
-    <t>carnes mortis</t>
-  </si>
-  <si>
-    <t>Sickly-green bolt</t>
-  </si>
-  <si>
-    <t>Do 1d4 necrotic damage plus an additional 1d4 \cvdv</t>
-  </si>
-  <si>
-    <t>Plague of Insects</t>
-  </si>
-  <si>
-    <t>prorepere</t>
-  </si>
-  <si>
-    <t>5 minutes</t>
-  </si>
-  <si>
-    <t>Summon a swarm of insects from the ground. Insect plague covers area of 2m radius, doubling with each PP (max 32 metres). All targets in radius must perform an evasion check, or take 1d4 poison damage and 1d4 piercing damage until they escape the area.</t>
-  </si>
-  <si>
-    <t>Summon Void</t>
-  </si>
-  <si>
-    <t>inanis</t>
-  </si>
-  <si>
-    <t>1 minute</t>
-  </si>
-  <si>
-    <t>ATH</t>
-  </si>
-  <si>
-    <t>Abyssal Fluid</t>
-  </si>
-  <si>
-    <t>sucus infernum</t>
-  </si>
-  <si>
-    <t>Black jet</t>
-  </si>
-  <si>
-    <t>2 turns</t>
-  </si>
-  <si>
-    <t>A pencil-thin jet of inky black fluid emerges from the end of your wand for as long as concentration is maintained, reaching up to 5m away. All targets touched by the fluid take 2d4 acid damage for 2 turns. Resist for half damage.</t>
-  </si>
-  <si>
-    <t>A master-level caster may expand the jet into a cone, and add an extra 2d4 to the damage check for every three character levels over level 10.</t>
-  </si>
-  <si>
-    <t>Fiendfyre</t>
-  </si>
-  <si>
-    <t>pyrkagius</t>
-  </si>
-  <si>
-    <t>1 hour</t>
-  </si>
-  <si>
-    <t>SPR</t>
+    <t xml:space="preserve">Necrosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carnes mortis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sickly-green bolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do 1d4 necrotic damage plus an additional 1d4 \cvdv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plague of Insects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prorepere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summon a swarm of insects from the ground. Insect plague covers area of 2m radius, doubling with each PP (max 32 metres). All targets in radius must perform an evasion check, or take 1d4 poison damage and 1d4 piercing damage until they escape the area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summon Void</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inanis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 minute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Half the caster level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summon a true Void anywhere within 15m of your current position, a gap in the fabric of reality that attracts all objects within a 5m radius. Everything in radius must perform an ATH Resist check to grab onto something. Objects sucked into the Void have a 25\% chance to remain there, and a75\% chance to be randomly teleported anywhere in the multiverse., after taking 4d8 cold damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abyssal Fluid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sucus infernum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black jet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 turns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pencil-thin jet of inky black fluid emerges from the end of your wand for as long as concentration is maintained, reaching up to 5m away. All targets touched by the fluid take 2d4 acid damage for 2 turns. Resist for half damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A master-level caster may expand the jet into a cone, and add an extra 2d4 to the damage check for every three character levels over level 10.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiendfyre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyrkagius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPR</t>
   </si>
   <si>
     <t xml:space="preserve">Summons a cursed fire that consumes everything that it touches, does 1d8 fire damage to all it touches, and will actively seek out targets. 
 Attempts to extinguish the fiendfyre must succeed a Resist check. </t>
   </si>
   <si>
-    <t>When cast by a Master-level caster, fiendfyre does 2d8 extra fire damage, and extinguishing checks take a 2-point penalty.</t>
-  </si>
-  <si>
-    <t>viven umbrafors</t>
-  </si>
-  <si>
-    <t>(3+PP) turns</t>
-  </si>
-  <si>
-    <t>Bring the very shadows to life: a being of pure darkness will stalk your enemies, attacking them whenever they stray near the shadows, doing (1+PP)d10 worth of necrotic damage.</t>
-  </si>
-  <si>
-    <t>Blood Barrier</t>
-  </si>
-  <si>
-    <t>confusangui</t>
-  </si>
-  <si>
-    <t>Create Thrall</t>
-  </si>
-  <si>
-    <t>Imperius</t>
+    <t xml:space="preserve">When cast by a Master-level caster, fiendfyre does 2d8 extra fire damage, and extinguishing checks take a 2-point penalty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadow Demon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viven umbrafors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3+PP) turns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bring the very shadows to life: a being of pure darkness will stalk your enemies, attacking them whenever they stray near the shadows, doing (1+PP)d10 worth of necrotic damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood Barrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confusangui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use blood to draw warding runes onto an object or person. Erects a swirling red magical barrier with AC 10, plus 5 for every casting point over the difficulty. Barrier blocks all physical and magical damage and is immune to acid erosion, but is eroded by celestial damage. 
+Each individual{\apos}s blood can only be used once for blood magic.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Thrall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imperius</t>
   </si>
   <si>
     <t xml:space="preserve">The target is placed under the complete control of the caster until concentration is broken. </t>
   </si>
   <si>
-    <t>Create Zombie</t>
-  </si>
-  <si>
-    <t>inferi exorior</t>
-  </si>
-  <si>
-    <t>Ritual (5 minutes)</t>
+    <t xml:space="preserve">Create Zombie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inferi exorior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ritual (5 minutes)</t>
   </si>
   <si>
     <t xml:space="preserve">Breathes unlife into dead bodies, and turns them into ghastly puppets, performing your every whim: the inferi. Inferi act as golems, obeying every word of their creator. </t>
@@ -408,7 +419,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>When cast by a Master-level caster greater than 15</t>
+      <t xml:space="preserve">When cast by a Master-level caster greater than 15</t>
     </r>
     <r>
       <rPr>
@@ -418,7 +429,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>th</t>
+      <t xml:space="preserve">th</t>
     </r>
     <r>
       <rPr>
@@ -431,51 +442,51 @@
     </r>
   </si>
   <si>
-    <t>Chaos Magic</t>
-  </si>
-  <si>
-    <t>chaomal portis</t>
-  </si>
-  <si>
-    <t>(2+PP) turns</t>
-  </si>
-  <si>
-    <t>Open a small portal to Pand{\ae}monium, the Chaos Realm at your current location. For every turn that the portal remains open, it casts random Dark Magic at all targets outside a 2m radius of the caster. These spells increase in power as the portal remains open.</t>
-  </si>
-  <si>
-    <t>Create Horcrux</t>
-  </si>
-  <si>
-    <t>pervinco mortis</t>
-  </si>
-  <si>
-    <t>Ritual (1 day)</t>
-  </si>
-  <si>
-    <t>The caster places a portion of their soul into another object. Write down the horcrux on a piece of paper and keep it hidden. 
+    <t xml:space="preserve">Chaos Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chaomal portis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2+PP) turns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open a small portal to Pand{\ae}monium, the Chaos Realm at your current location. For every turn that the portal remains open, it casts random Dark Magic at all targets outside a 2m radius of the caster. These spells increase in power as the portal remains open.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Horcrux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pervinco mortis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ritual (1 day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The caster places a portion of their soul into another object. Write down the horcrux on a piece of paper and keep it hidden. 
 Whilst a horcrux exists, the character cannot be killed, however creating a Horcrux reduces all casting checks by 2 for each horcrux that is created.  
 Can only be cast if the caster has murdered an innocent in cold blood.</t>
   </si>
   <si>
-    <t>Kill Target</t>
-  </si>
-  <si>
-    <t>avada kedavra</t>
-  </si>
-  <si>
-    <t>Green bolt</t>
+    <t xml:space="preserve">Kill Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avada kedavra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green bolt</t>
   </si>
   <si>
     <t xml:space="preserve">If the spell makes contact with the target, kills them instantly. There is no countercurse. </t>
   </si>
   <si>
-    <t>Soul Snare</t>
-  </si>
-  <si>
-    <t>nerco decipula</t>
-  </si>
-  <si>
-    <t>Black aura</t>
+    <t xml:space="preserve">Soul Snare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nerco decipula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black aura</t>
   </si>
   <si>
     <t xml:space="preserve">Capture the soul of a recently killed enemy. 
@@ -483,28 +494,28 @@
 Only one soul may be trapped at any given, and no power points may be dedicated to the instant-casting. </t>
   </si>
   <si>
-    <t>Universal Tear</t>
-  </si>
-  <si>
-    <t>ostium</t>
-  </si>
-  <si>
-    <t>Ritual (1 week)</t>
-  </si>
-  <si>
-    <t>Searing white flash</t>
+    <t xml:space="preserve">Universal Tear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ostium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ritual (1 week)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searing white flash</t>
   </si>
   <si>
     <t xml:space="preserve">Punch a hole in the fabric of reality, and establish a portal to one of the Higher Planes. This portal takes the form of a shimmering door. Stepping through the door takes you to the chosen Plane. </t>
   </si>
   <si>
-    <t>Fury\apos{}s Fire</t>
-  </si>
-  <si>
-    <t>Beast</t>
-  </si>
-  <si>
-    <t>Red Fireball</t>
+    <t xml:space="preserve">Fury\apos{}s Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Fireball</t>
   </si>
   <si>
     <t xml:space="preserve">{\bf This spell can only be cast by a Veela when in their Fury-form. It cannot be learned by non-Veela.}
@@ -514,31 +525,31 @@
     <t xml:space="preserve">When cast by a Veela greater than 10th level, use a d8 dice for the damage check. </t>
   </si>
   <si>
-    <t>False Moon</t>
-  </si>
-  <si>
-    <t>lupis lunis</t>
-  </si>
-  <si>
-    <t>Silver Glow</t>
-  </si>
-  <si>
-    <t>If the spell is maintained on a targeted werewolf for 3 consecutive turns, they enter their wolf-form for 1 hour.</t>
-  </si>
-  <si>
-    <t>When cast by a character greater than 15th level, the spell works after only 1 turn.</t>
-  </si>
-  <si>
-    <t>Crippling Fatigue</t>
+    <t xml:space="preserve">False Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lupis lunis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver Glow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the spell is maintained on a targeted werewolf for 3 consecutive turns, they enter their wolf-form for 1 hour.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When cast by a character greater than 15th level, the spell works after only 1 turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crippling Fatigue</t>
   </si>
   <si>
     <t xml:space="preserve">dulcis mortem </t>
   </si>
   <si>
-    <t>Until healed</t>
-  </si>
-  <si>
-    <t>Target takes 2nd level Fatigued status (negated on Resist). Target is not alerted that this spell has been cast on them.</t>
+    <t xml:space="preserve">Until healed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target takes 2nd level Fatigued status (negated on Resist). Target is not alerted that this spell has been cast on them.</t>
   </si>
   <si>
     <r>
@@ -548,7 +559,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>When cast by an Expert-level caster, spell gives 4</t>
+      <t xml:space="preserve">When cast by an Expert-level caster, spell gives 4</t>
     </r>
     <r>
       <rPr>
@@ -558,7 +569,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>th</t>
+      <t xml:space="preserve">th</t>
     </r>
     <r>
       <rPr>
@@ -571,101 +582,103 @@
     </r>
   </si>
   <si>
-    <t>Shadowsight</t>
-  </si>
-  <si>
-    <t>ivertus</t>
-  </si>
-  <si>
-    <t>Eyes glow white</t>
+    <t xml:space="preserve">Shadowsight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ivertus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eyes glow white</t>
   </si>
   <si>
     <t xml:space="preserve">Invert your vision -- pure darkness is considered bright light, and bright light is considered pure darkness for as long as the spell is maintained. </t>
   </si>
   <si>
-    <t>Coven\apos{}s Protection</t>
-  </si>
-  <si>
-    <t>Ritual (4 hours)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This ritual can only be performed in an isolated area, in the middle of the night. By gathering together and invoking the name of an unspeakable, unknowable power, you bind the life forces of all participants together, to form a unified whole. While the Coven exists, any member may use a minor action to transfer HP or FP to any other member of the coven, and multiple members may send HP/FP to the same target at any given moment. However, if psychic damage is inflicted on any member of the Coven in the same turn-cycle that HP or FP are being transferred, that damage is done to all members of the Coven. If this damage is also a Critical Strike, then the ritual is distrupted and the spell is ended. </t>
-  </si>
-  <si>
-    <t>Shadow Demon</t>
-  </si>
-  <si>
-    <t>Ward</t>
-  </si>
-  <si>
-    <t>Half the caster level</t>
-  </si>
-  <si>
-    <t>Summon a true Void anywhere within 15m of your current position, a gap in the fabric of reality that attracts all objects within a 5m radius. Everything in radius must perform an ATH Resist check to grab onto something. Objects sucked into the Void have a 25\% chance to remain there, and a75\% chance to be randomly teleported anywhere in the multiverse., after taking 4d8 cold damage.</t>
-  </si>
-  <si>
-    <t>facadus horribilis</t>
-  </si>
-  <si>
-    <t>10 minutes</t>
+    <t xml:space="preserve">Coven\apos{}s Protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ritual (4 hours)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This ritual can only be performed in an isolated area, in the middle of the night. By gathering together and invoking the name of an unspeak- able, unknowable power, you bind the life forces of all participants together, to form a unified whole. While the Coven exists, any member may use a minor action to transfer HP or FP to any other member of the coven, and multiple members may send HP/FP to the same target at any given mo- ment. However, if psychic damage is inflicted on any member of the Coven in the same turn-cycle that HP or FP are being transferred, that damage is done to all members of the Coven. If this damage is also a Critical Strike, then the ritual is distrupted and the spell is ended.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unfathomable Visage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facadus horribilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutes</t>
   </si>
   <si>
     <t xml:space="preserve">Imbue yourself with the essence of one of the Eldritch beings, giving a bonus to any one of your Attributes equal to half your caster level, in doing so, however, your face transforms into a horrifying edifice which drives all who gaze upon it to go insane: they will either fly into a murderous rage, become catatonic, or flee from you. </t>
   </si>
   <si>
-    <t>Use Ancient Powers</t>
-  </si>
-  <si>
-    <t>Ritual (1 hour)</t>
-  </si>
-  <si>
-    <t>Unfathomable Visage</t>
+    <t xml:space="preserve">Use Ancient Powers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ritual (1 hour)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 day</t>
   </si>
   <si>
     <t xml:space="preserve">When at a site of ancient magic -- be it at a place where some great feat of magic was achieved, the residence of some powerful being, or simply somewhere where magic has seeped into the very walls -- you may perform this ritual to tap into those ancient powers to gain a +2 bonus to spellcasting checks whilst in this area. This ritual may only be performed once per site. </t>
   </si>
   <si>
-    <t>1 day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use blood to draw warding runes onto an object or person. Erects a swirling red magical barrier with AC 10, plus 5 for every casting point over the difficulty. Barrier blocks all physical and magical damage and is immune to acid erosion, but is eroded by celestial damage. 
-Each individual{\apos}s blood can only be used once for blood magic.  </t>
-  </si>
-  <si>
-    <t>Summoning Circle</t>
+    <t xml:space="preserve">Summoning Circle</t>
   </si>
   <si>
     <t xml:space="preserve">By gathering together a group (only one of whom needs to be able to cast this spell), you create a special altar from which conjuration spells are especially powerful. The radius of this region is 2m, and whilst inside it, you gain a bonus to Conjuration casting checks equal to the number of people who created the summoning circle. </t>
   </si>
   <si>
-    <t>Blood Moon</t>
-  </si>
-  <si>
-    <t>Ritual (10 minutes)</t>
-  </si>
-  <si>
-    <t>Sky turns red</t>
-  </si>
-  <si>
-    <t>2 hours</t>
-  </si>
-  <si>
-    <t>When cast by a Master-level cast, this spell lasts for one week.</t>
+    <t xml:space="preserve">Blood Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ritual (10 minutes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sky turns red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 hours</t>
   </si>
   <si>
     <t xml:space="preserve">By sacrificing an animal larger than a cat, you may use the inherent power of its blood to manipulate the power of the Sun and the Moon: the sky becomes overcast and takes on an unhealthy red glow. This blocks out the effects of the sun and the moon on Vampires, Werewolves, and other such creatures. Werewolves may still choose to undergo their transformation, but retain humanoid intelligence when doing so. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When cast by a Master-level cast, this spell lasts for one week.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -680,6 +693,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="aakar"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -690,14 +709,14 @@
     </fill>
   </fills>
   <borders count="4">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -712,7 +731,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -727,7 +746,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -739,51 +758,97 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="14">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -842,347 +907,38 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AME33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J28" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="D22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="28" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="92.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="36.42578125" style="1" customWidth="1"/>
-    <col min="12" max="1019" width="8.7109375" style="1" customWidth="1"/>
-    <col min="1020" max="1025" width="8.7109375" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="27.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="92.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="36.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="12" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1217,7 +973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -1233,10 +989,10 @@
       <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="5"/>
@@ -1248,7 +1004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -1264,10 +1020,10 @@
       <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="8"/>
@@ -1276,7 +1032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
@@ -1292,10 +1048,10 @@
       <c r="E4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="8"/>
@@ -1307,7 +1063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
@@ -1324,7 +1080,7 @@
       <c r="F5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="10" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="10"/>
@@ -1333,7 +1089,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
@@ -1349,10 +1105,10 @@
       <c r="E6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="8"/>
@@ -1364,7 +1120,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
@@ -1383,7 +1139,7 @@
       <c r="F7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="5" t="n">
         <v>2</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -1399,7 +1155,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
         <v>46</v>
       </c>
@@ -1415,10 +1171,10 @@
       <c r="E8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="10" t="n">
         <v>2</v>
       </c>
       <c r="H8" s="10"/>
@@ -1427,7 +1183,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
         <v>50</v>
       </c>
@@ -1441,10 +1197,10 @@
         <v>52</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="10">
+      <c r="F9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="12" t="n">
         <v>3</v>
       </c>
       <c r="H9" s="12"/>
@@ -1456,7 +1212,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
         <v>55</v>
       </c>
@@ -1473,7 +1229,7 @@
       <c r="F10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -1486,7 +1242,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
         <v>60</v>
       </c>
@@ -1502,10 +1258,10 @@
       <c r="E11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="8" t="n">
         <v>2</v>
       </c>
       <c r="H11" s="8"/>
@@ -1514,7 +1270,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
         <v>64</v>
       </c>
@@ -1531,7 +1287,7 @@
       <c r="F12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="8" t="n">
         <v>3</v>
       </c>
       <c r="H12" s="8"/>
@@ -1540,7 +1296,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
         <v>68</v>
       </c>
@@ -1557,157 +1313,157 @@
       <c r="F13" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="12" t="n">
         <v>3</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>71</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="8">
+        <v>77</v>
+      </c>
+      <c r="G14" s="8" t="n">
         <v>2</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="8" t="n">
         <v>10</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="32.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="8">
+        <v>82</v>
+      </c>
+      <c r="G15" s="8" t="n">
         <v>3</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>43</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="8">
+        <v>88</v>
+      </c>
+      <c r="G16" s="8" t="n">
         <v>3</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="32.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="10">
+      <c r="F17" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="12" t="n">
         <v>4</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="8">
+      <c r="F18" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="8" t="n">
         <v>4</v>
       </c>
       <c r="H18" s="8" t="s">
@@ -1717,244 +1473,244 @@
         <v>43</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="8">
+      <c r="F19" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="8" t="n">
         <v>4</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="32.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="8">
+        <v>104</v>
+      </c>
+      <c r="G20" s="8" t="n">
         <v>4</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="8">
+      <c r="F21" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="8" t="n">
         <v>5</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="8">
+        <v>112</v>
+      </c>
+      <c r="F22" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="8" t="n">
         <v>5</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="41.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="8">
+        <v>116</v>
+      </c>
+      <c r="F23" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="8" t="n">
         <v>5</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="1">
+        <v>121</v>
+      </c>
+      <c r="F24" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="1">
+        <v>125</v>
+      </c>
+      <c r="F25" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="1">
+        <v>82</v>
+      </c>
+      <c r="G26" s="1" t="n">
         <v>3</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" s="1">
+        <v>135</v>
+      </c>
+      <c r="G27" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -1964,102 +1720,102 @@
         <v>43</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" s="1">
+        <v>140</v>
+      </c>
+      <c r="F28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="1" t="n">
         <v>2</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="84" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="64.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F29" s="1">
+        <v>143</v>
+      </c>
+      <c r="F29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+      <c r="J29" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G30" s="1">
+        <v>147</v>
+      </c>
+      <c r="G30" s="1" t="n">
         <v>2</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>153</v>
       </c>
@@ -2067,16 +1823,16 @@
         <v>19</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" s="1">
+        <v>92</v>
+      </c>
+      <c r="G32" s="1" t="n">
         <v>4</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>155</v>
       </c>
@@ -2092,20 +1848,21 @@
       <c r="F33" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="1" t="n">
         <v>3</v>
       </c>
       <c r="J33" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>159</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
